--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,16 +34,34 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итог за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,15 +85,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -95,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,11 +129,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -135,22 +159,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -213,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,10 +270,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +304,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -456,74 +479,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>43774</v>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>43400</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>8350</v>
-      </c>
-      <c r="D2" s="3">
-        <f t="shared" ref="D2:D11" si="0">C2-C4</f>
-        <v>300</v>
-      </c>
-      <c r="E2" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F7" si="1">D2*E2</f>
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7333</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -531,41 +554,41 @@
       <c r="C3" s="3">
         <v>3151</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43703</v>
+        <v>43669</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>8050</v>
+        <v>7533</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>267</v>
-      </c>
-      <c r="E4" s="9">
+        <f>C4-C2</f>
+        <v>200</v>
+      </c>
+      <c r="E4" s="11">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>1198.8300000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F11" si="0">D4*E4</f>
+        <v>898</v>
+      </c>
+      <c r="G4" s="10">
+        <v>898</v>
+      </c>
+      <c r="H4" s="10">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -574,18 +597,20 @@
         <v>3151</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" ref="D5:D11" si="1">C5-C3</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>43688</v>
       </c>
@@ -596,18 +621,24 @@
         <v>7783</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
         <v>1122.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="10">
+        <v>1122.5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1122.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -616,40 +647,48 @@
         <v>3151</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>43703</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8050</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43669</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7533</v>
-      </c>
-      <c r="D8" s="3">
+        <v>267</v>
+      </c>
+      <c r="E8" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" ref="F8:F13" si="2">D8*E8</f>
-        <v>898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1198.8300000000002</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1198.83</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1198.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -658,40 +697,48 @@
         <v>3151</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="10">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43400</v>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="8">
+        <v>43774</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>7333</v>
+        <v>8350</v>
       </c>
       <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="11">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
-        <v>1333</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>5998.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1347</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1347</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -700,100 +747,41 @@
         <v>3151</v>
       </c>
       <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
-        <v>851</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="2"/>
-        <v>1999.8500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43344</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C14</f>
-        <v>500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="2"/>
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2300</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C15</f>
-        <v>79</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>171.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43113</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5500</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2221</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G4:G11)</f>
+        <v>4566.33</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H4:H11)</f>
+        <v>4582.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -803,12 +791,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -817,12 +805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -57,11 +57,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +80,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -165,17 +158,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -238,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +263,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,6 +298,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -479,17 +474,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
@@ -504,7 +499,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="52.5" customHeight="1">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -530,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43400</v>
       </c>
@@ -542,11 +537,11 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -556,11 +551,11 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43669</v>
       </c>
@@ -574,21 +569,21 @@
         <f>C4-C2</f>
         <v>200</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>4.49</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F11" si="0">D4*E4</f>
         <v>898</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>898</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>914</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -600,17 +595,17 @@
         <f t="shared" ref="D5:D11" si="1">C5-C3</f>
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43688</v>
       </c>
@@ -624,21 +619,21 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>4.49</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>1122.5</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>1122.5</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>1122.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -650,17 +645,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43703</v>
       </c>
@@ -674,21 +669,21 @@
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>4.49</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>1198.8300000000002</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>1198.83</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>1198.83</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -700,18 +695,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>43774</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -724,22 +719,22 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>4.49</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>1347</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>1347</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>1347</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -750,36 +745,138 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="F12" s="2" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>43936</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8550</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
+        <v>898</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>898</v>
+      </c>
+      <c r="H12" s="9">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3151</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43943</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8850</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="4">C14-C12</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
+        <v>1347</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>1347</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3151</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
-        <f>SUM(G4:G11)</f>
-        <v>4566.33</v>
-      </c>
-      <c r="H12" s="10">
-        <f>SUM(H4:H11)</f>
-        <v>4582.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="F13" s="2" t="s">
+      <c r="G16" s="9">
+        <f>SUM(G4:G15)</f>
+        <v>6811.33</v>
+      </c>
+      <c r="H16" s="9">
+        <f>SUM(H4:H15)</f>
+        <v>6827.33</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <f>SUM(H16,-G16)</f>
         <v>16</v>
       </c>
     </row>
@@ -791,12 +888,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,12 +902,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -858,25 +858,76 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="12">
+        <v>43964</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>9540</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="6">C16-C14</f>
+        <v>690</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="7">D16*E16</f>
+        <v>3098.1000000000004</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>3098.1000000000004</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3098.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3151</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G18" s="9">
         <f>SUM(G4:G15)</f>
         <v>6811.33</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H18" s="9">
         <f>SUM(H4:H15)</f>
         <v>6827.33</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <f>SUM(H18,-G18)</f>
         <v>16</v>
       </c>
     </row>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -909,25 +909,127 @@
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="12">
+        <v>43998</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9840</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="8">C18-C16</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="9">D18*E18</f>
+        <v>1347</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>1833</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3351</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="9"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>43999</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>10150</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="10">C20-C18</f>
+        <v>310</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="11">D20*E20</f>
+        <v>1391.9</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>1391.9</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1391.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3351</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
-        <f>SUM(G4:G15)</f>
-        <v>6811.33</v>
-      </c>
-      <c r="H18" s="9">
-        <f>SUM(H4:H15)</f>
-        <v>6827.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2" t="s">
+      <c r="G22" s="9">
+        <f>SUM(G4:G19)</f>
+        <v>11742.43</v>
+      </c>
+      <c r="H22" s="9">
+        <f>SUM(H4:H19)</f>
+        <v>11758.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9">
-        <f>SUM(H18,-G18)</f>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <f>SUM(H22,-G22)</f>
         <v>16</v>
       </c>
     </row>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1011,25 +1011,76 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="12">
+        <v>44029</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10581</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="12">C22-C20</f>
+        <v>431</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="13">D22*E22</f>
+        <v>2030.01</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>2302.86</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2306.8200000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3458</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="12"/>
+        <v>107</v>
+      </c>
+      <c r="E23" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="13"/>
+        <v>272.84999999999997</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G24" s="9">
         <f>SUM(G4:G19)</f>
         <v>11742.43</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H24" s="9">
         <f>SUM(H4:H19)</f>
         <v>11758.43</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9">
-        <f>SUM(H22,-G22)</f>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <f>SUM(H24,-G24)</f>
         <v>16</v>
       </c>
     </row>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1062,26 +1062,77 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="12">
+        <v>44056</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11181</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="14">C24-C22</f>
+        <v>600</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F25" si="15">D24*E24</f>
+        <v>2826</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H24" s="9">
+        <v>3208.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3608</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="15"/>
+        <v>382.5</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="9">
-        <f>SUM(G4:G19)</f>
-        <v>11742.43</v>
-      </c>
-      <c r="H24" s="9">
-        <f>SUM(H4:H19)</f>
-        <v>11758.43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2" t="s">
+      <c r="G26" s="9">
+        <f>SUM(G4:G25)</f>
+        <v>18645.690000000002</v>
+      </c>
+      <c r="H26" s="9">
+        <f>SUM(H4:H25)</f>
+        <v>18665.650000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9">
-        <f>SUM(H24,-G24)</f>
-        <v>16</v>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <f>SUM(H26,-G26)</f>
+        <v>19.959999999999127</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1113,25 +1113,76 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="12">
+        <v>44089</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="16">C26-C24</f>
+        <v>319</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" ref="F26:F27" si="17">D26*E26</f>
+        <v>1502.49</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>1737.09</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1737.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="16"/>
+        <v>92</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="17"/>
+        <v>234.6</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G28" s="9">
         <f>SUM(G4:G25)</f>
         <v>18645.690000000002</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H28" s="9">
         <f>SUM(H4:H25)</f>
         <v>18665.650000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <f>SUM(H28,-G28)</f>
         <v>19.959999999999127</v>
       </c>
     </row>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1164,25 +1164,76 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28" s="2" t="s">
+      <c r="A28" s="12">
+        <v>44120</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>11900</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="18">C28-C26</f>
+        <v>400</v>
+      </c>
+      <c r="E28" s="10">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" ref="F28:F29" si="19">D28*E28</f>
+        <v>1884</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>2266.5</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2266.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3850</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="18"/>
+        <v>150</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="19"/>
+        <v>382.5</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="9">
-        <f>SUM(G4:G25)</f>
-        <v>18645.690000000002</v>
-      </c>
-      <c r="H28" s="9">
-        <f>SUM(H4:H25)</f>
-        <v>18665.650000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29" s="2" t="s">
+      <c r="G30" s="9">
+        <f>SUM(G4:G29)</f>
+        <v>22649.280000000002</v>
+      </c>
+      <c r="H30" s="9">
+        <f>SUM(H4:H29)</f>
+        <v>22669.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9">
-        <f>SUM(H28,-G28)</f>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9">
+        <f>SUM(H30,-G30)</f>
         <v>19.959999999999127</v>
       </c>
     </row>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -706,25 +706,76 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="11">
+        <v>44202</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12100</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>200</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>942</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1324.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1324.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="7"/>
+        <v>382.5</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>7212.09</v>
-      </c>
-      <c r="H10" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>7212.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+      <c r="G12" s="8">
+        <f>SUM(G2:G11)</f>
+        <v>8536.59</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H11)</f>
+        <v>8536.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <f>SUM(H10,-G10)</f>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итог за период</t>
-  </si>
-  <si>
-    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -91,12 +85,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -142,7 +142,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,10 +477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -497,287 +499,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44029</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>44302</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
-        <v>10581</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="2">
+        <v>12600</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-C4</f>
+        <v>250</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" ref="F2:F13" si="0">D2*E2</f>
+        <v>1177.5</v>
+      </c>
+      <c r="G2" s="7">
+        <f>SUM(F2,F3)</f>
+        <v>1560</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1432.5</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>3458</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="2">
+        <v>4250</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3-C5</f>
+        <v>150</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>382.5</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>44056</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="10">
+        <v>44252</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>11181</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
-        <v>600</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="2">
+        <v>12350</v>
+      </c>
+      <c r="D4" s="2">
+        <f>C4-C6</f>
+        <v>250</v>
+      </c>
+      <c r="E4" s="8">
         <v>4.71</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>2826</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>1177.5</v>
+      </c>
+      <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>3208.5</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3208.5</v>
+        <v>1432.5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1432.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>3608</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
+      <c r="C5" s="2">
+        <v>4100</v>
+      </c>
+      <c r="D5" s="2">
+        <f>C5-C7</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>44202</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12100</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C6-C8</f>
+        <v>200</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>942</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUM(F6,F7)</f>
+        <v>1324.5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1324.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C9</f>
         <v>150</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" si="1"/>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>382.5</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>44089</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>44120</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>11500</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
-        <v>319</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C8" s="2">
+        <v>11900</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-C10</f>
+        <v>400</v>
+      </c>
+      <c r="E8" s="8">
         <v>4.71</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>1502.49</v>
-      </c>
-      <c r="G6" s="8">
-        <f>SUM(F6,F7)</f>
-        <v>1737.09</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1737.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3700</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="3"/>
-        <v>234.6</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>44120</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>11900</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
-        <v>400</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>1884</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
         <v>2266.5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>2266.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>3850</v>
       </c>
-      <c r="D9" s="3">
-        <f t="shared" si="4"/>
+      <c r="D9" s="2">
+        <f>C9-C11</f>
         <v>150</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="5"/>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
         <v>382.5</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>44202</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="10">
+        <v>44089</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>12100</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
-        <v>200</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="2">
+        <v>11500</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10-C12</f>
+        <v>319</v>
+      </c>
+      <c r="E10" s="8">
         <v>4.71</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>942</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>1502.49</v>
+      </c>
+      <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1324.5</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1324.5</v>
+        <v>1737.09</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1737.09</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="6"/>
+      <c r="C11" s="2">
+        <v>3700</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11-C13</f>
+        <v>92</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>234.6</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>44056</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11181</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12-C14</f>
+        <v>600</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>2826</v>
+      </c>
+      <c r="G12" s="7">
+        <f>SUM(F12,F13)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3208.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3608</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13-C15</f>
         <v>150</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="7"/>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
         <v>382.5</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(G2:G11)</f>
-        <v>8536.59</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H2:H11)</f>
-        <v>8536.59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C14" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -85,7 +85,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +95,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,6 +174,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -526,31 +535,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44302</v>
+        <v>44363</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>12600</v>
+        <v>13200</v>
       </c>
       <c r="D2" s="2">
-        <f>C2-C4</f>
-        <v>250</v>
+        <f t="shared" ref="D2:D3" si="0">C2-C4</f>
+        <v>300</v>
       </c>
       <c r="E2" s="8">
         <v>4.71</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F13" si="0">D2*E2</f>
-        <v>1177.5</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1413</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>1560</v>
+        <v>1744.5</v>
       </c>
       <c r="H2" s="7">
-        <v>1432.5</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -559,49 +568,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4250</v>
+        <v>4400</v>
       </c>
       <c r="D3" s="2">
-        <f>C3-C5</f>
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="E3" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" si="0"/>
-        <v>382.5</v>
+        <f t="shared" si="1"/>
+        <v>331.5</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>44252</v>
+      <c r="A4" s="12">
+        <v>44333</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>12350</v>
+        <v>12900</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C6</f>
-        <v>250</v>
+        <f t="shared" ref="D4:D17" si="2">C4-C6</f>
+        <v>300</v>
       </c>
       <c r="E4" s="8">
         <v>4.71</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>1177.5</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>1413</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
       <c r="H4" s="7">
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,49 +619,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4100</v>
+        <v>4270</v>
       </c>
       <c r="D5" s="2">
-        <f>C5-C7</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="E5" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>44202</v>
+      <c r="A6" s="12">
+        <v>44302</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="D6" s="2">
-        <f>C6-C8</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="E6" s="8">
         <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
-        <v>942</v>
+        <f t="shared" ref="F6:F17" si="4">D6*E6</f>
+        <v>1177.5</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>1324.5</v>
+        <v>1560</v>
       </c>
       <c r="H6" s="7">
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -661,17 +670,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4000</v>
+        <v>4250</v>
       </c>
       <c r="D7" s="2">
-        <f>C7-C9</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>382.5</v>
       </c>
       <c r="G7" s="7"/>
@@ -679,31 +688,31 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>44120</v>
+        <v>44252</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>11900</v>
+        <v>12350</v>
       </c>
       <c r="D8" s="2">
-        <f>C8-C10</f>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>1884</v>
+        <f t="shared" si="4"/>
+        <v>1177.5</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>2266.5</v>
+        <v>1432.5</v>
       </c>
       <c r="H8" s="7">
-        <v>2266.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,49 +721,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>3850</v>
+        <v>4100</v>
       </c>
       <c r="D9" s="2">
-        <f>C9-C11</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>382.5</v>
+        <f t="shared" si="4"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44089</v>
+        <v>44202</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>11500</v>
+        <v>12100</v>
       </c>
       <c r="D10" s="2">
-        <f>C10-C12</f>
-        <v>319</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="0"/>
-        <v>1502.49</v>
+        <f t="shared" si="4"/>
+        <v>942</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1737.09</v>
+        <v>1324.5</v>
       </c>
       <c r="H10" s="7">
-        <v>1737.09</v>
+        <v>1324.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -763,49 +772,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="D11" s="2">
-        <f>C11-C13</f>
-        <v>92</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="0"/>
-        <v>234.6</v>
+        <f t="shared" si="4"/>
+        <v>382.5</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44056</v>
+        <v>44120</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>11181</v>
+        <v>11900</v>
       </c>
       <c r="D12" s="2">
-        <f>C12-C14</f>
-        <v>600</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
-        <v>2826</v>
+        <f t="shared" si="4"/>
+        <v>1884</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>3208.5</v>
+        <v>2266.5</v>
       </c>
       <c r="H12" s="7">
-        <v>3208.5</v>
+        <v>2266.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,17 +823,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>3608</v>
+        <v>3850</v>
       </c>
       <c r="D13" s="2">
-        <f>C13-C15</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>382.5</v>
       </c>
       <c r="G13" s="7"/>
@@ -832,19 +841,32 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44029</v>
+        <v>44089</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>10581</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+        <v>11500</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
+        <v>1502.49</v>
+      </c>
+      <c r="G14" s="7">
+        <f>SUM(F14,F15)</f>
+        <v>1737.09</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1737.09</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -852,13 +874,102 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3458</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6"/>
+        <v>3700</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="4"/>
+        <v>234.6</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44056</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11181</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="4"/>
+        <v>2826</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(F16,F17)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3208.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3608</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="4"/>
+        <v>382.5</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,13 +535,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44363</v>
+        <v>44376</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
@@ -556,10 +556,10 @@
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
       <c r="H2" s="7">
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,34 +568,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>331.5</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D17" si="2">C4-C6</f>
+        <f t="shared" ref="D4:D5" si="2">C4-C6</f>
         <v>300</v>
       </c>
       <c r="E4" s="8">
@@ -607,10 +607,10 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
       <c r="H4" s="7">
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,49 +619,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4270</v>
+        <v>4400</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E5" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>51</v>
+        <v>331.5</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" ref="D6:D19" si="4">C6-C8</f>
+        <v>300</v>
       </c>
       <c r="E6" s="8">
         <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" ref="F6:F17" si="4">D6*E6</f>
-        <v>1177.5</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>1413</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>1560</v>
+        <v>1464</v>
       </c>
       <c r="H6" s="7">
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,46 +670,46 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4250</v>
+        <v>4270</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="4"/>
-        <v>382.5</v>
+        <f t="shared" si="5"/>
+        <v>51</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>44252</v>
+      <c r="A8" s="12">
+        <v>44302</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>12350</v>
+        <v>12600</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F8:F19" si="6">D8*E8</f>
         <v>1177.5</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1432.5</v>
+        <v>1560</v>
       </c>
       <c r="H8" s="7">
         <v>1432.5</v>
@@ -721,49 +721,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4100</v>
+        <v>4250</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="4"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="6"/>
+        <v>382.5</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>12100</v>
+        <v>12350</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="4"/>
-        <v>942</v>
+        <f t="shared" si="6"/>
+        <v>1177.5</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
       <c r="H10" s="7">
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,49 +772,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="4"/>
-        <v>382.5</v>
+        <f t="shared" si="6"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44120</v>
+        <v>44202</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>400</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="4"/>
-        <v>1884</v>
+        <f t="shared" si="6"/>
+        <v>942</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
       <c r="H12" s="7">
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,17 +823,17 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>382.5</v>
       </c>
       <c r="G13" s="7"/>
@@ -841,31 +841,31 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>319</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="4"/>
-        <v>1502.49</v>
+        <f t="shared" si="6"/>
+        <v>1884</v>
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
       <c r="H14" s="7">
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,49 +874,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3700</v>
+        <v>3850</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>234.6</v>
+        <f t="shared" si="6"/>
+        <v>382.5</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44056</v>
+        <v>44089</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>11181</v>
+        <v>11500</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>600</v>
+        <f t="shared" si="4"/>
+        <v>319</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="4"/>
-        <v>2826</v>
+        <f t="shared" si="6"/>
+        <v>1502.49</v>
       </c>
       <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
       <c r="H16" s="7">
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,37 +925,50 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3608</v>
+        <v>3700</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>382.5</v>
+        <f t="shared" si="6"/>
+        <v>234.6</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44029</v>
+        <v>44056</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>10581</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+        <v>11181</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="6"/>
+        <v>2826</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F18,F19)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3208.5</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -963,13 +976,51 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>3458</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="6"/>
+        <v>3608</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>382.5</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,31 +535,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44376</v>
+        <v>44398</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
         <v>300</v>
       </c>
       <c r="E2" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1413</v>
+        <v>1488</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="H2" s="7">
-        <v>1668</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,31 +568,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4500</v>
+        <v>4550</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <v>134</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44363</v>
+        <v>44376</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
@@ -607,10 +607,10 @@
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
       <c r="H4" s="7">
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,34 +619,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E5" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>331.5</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D19" si="4">C6-C8</f>
+        <f t="shared" ref="D6:D7" si="4">C6-C8</f>
         <v>300</v>
       </c>
       <c r="E6" s="8">
@@ -658,10 +658,10 @@
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
       <c r="H6" s="7">
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,49 +670,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4270</v>
+        <v>4400</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>331.5</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="4"/>
-        <v>250</v>
+        <f t="shared" ref="D8:D21" si="6">C8-C10</f>
+        <v>300</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F19" si="6">D8*E8</f>
-        <v>1177.5</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>1413</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1560</v>
+        <v>1464</v>
       </c>
       <c r="H8" s="7">
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,46 +721,46 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4250</v>
+        <v>4270</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="6"/>
-        <v>382.5</v>
+        <f t="shared" si="7"/>
+        <v>51</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>44252</v>
+      <c r="A10" s="12">
+        <v>44302</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>12350</v>
+        <v>12600</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F10:F21" si="8">D10*E10</f>
         <v>1177.5</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1432.5</v>
+        <v>1560</v>
       </c>
       <c r="H10" s="7">
         <v>1432.5</v>
@@ -772,49 +772,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4100</v>
+        <v>4250</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>150</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="6"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="8"/>
+        <v>382.5</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>12100</v>
+        <v>12350</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>942</v>
+        <f t="shared" si="8"/>
+        <v>1177.5</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
       <c r="H12" s="7">
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,49 +823,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>382.5</v>
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44120</v>
+        <v>44202</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>400</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="6"/>
-        <v>1884</v>
+        <f t="shared" si="8"/>
+        <v>942</v>
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
       <c r="H14" s="7">
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,17 +874,17 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>382.5</v>
       </c>
       <c r="G15" s="7"/>
@@ -892,31 +892,31 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="4"/>
-        <v>319</v>
+        <f t="shared" si="6"/>
+        <v>400</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="6"/>
-        <v>1502.49</v>
+        <f t="shared" si="8"/>
+        <v>1884</v>
       </c>
       <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
       <c r="H16" s="7">
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,49 +925,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3700</v>
+        <v>3850</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f t="shared" si="6"/>
+        <v>150</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="6"/>
-        <v>234.6</v>
+        <f t="shared" si="8"/>
+        <v>382.5</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44056</v>
+        <v>44089</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>11181</v>
+        <v>11500</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="4"/>
-        <v>600</v>
+        <f t="shared" si="6"/>
+        <v>319</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="6"/>
-        <v>2826</v>
+        <f t="shared" si="8"/>
+        <v>1502.49</v>
       </c>
       <c r="G18" s="7">
         <f>SUM(F18,F19)</f>
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
       <c r="H18" s="7">
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,37 +976,50 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>3608</v>
+        <v>3700</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f t="shared" si="6"/>
+        <v>92</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="6"/>
-        <v>382.5</v>
+        <f t="shared" si="8"/>
+        <v>234.6</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44029</v>
+        <v>44056</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>10581</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>11181</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="8"/>
+        <v>2826</v>
+      </c>
+      <c r="G20" s="7">
+        <f>SUM(F20,F21)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>3208.5</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1014,13 +1027,51 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>3458</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="6"/>
+        <v>3608</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="8"/>
+        <v>382.5</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -486,7 +486,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -535,31 +535,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44398</v>
+        <v>44424</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>13800</v>
+        <v>14270</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1488</v>
+        <v>2331.1999999999998</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>1622</v>
+        <v>2438.3999999999996</v>
       </c>
       <c r="H2" s="7">
-        <v>1622</v>
+        <v>2438.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,49 +568,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4550</v>
+        <v>4590</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>107.2</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44376</v>
+        <v>44398</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
         <v>300</v>
       </c>
       <c r="E4" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1413</v>
+        <v>1488</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="H4" s="7">
-        <v>1668</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,31 +619,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4500</v>
+        <v>4550</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>254.99999999999997</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44363</v>
+        <v>44376</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
@@ -658,10 +658,10 @@
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
       <c r="H6" s="7">
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E7" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="5"/>
-        <v>331.5</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D21" si="6">C8-C10</f>
+        <f t="shared" ref="D8:D9" si="6">C8-C10</f>
         <v>300</v>
       </c>
       <c r="E8" s="8">
@@ -709,10 +709,10 @@
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
       <c r="H8" s="7">
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,49 +721,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4270</v>
+        <v>4400</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="7"/>
-        <v>51</v>
+        <v>331.5</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
-        <v>250</v>
+        <f t="shared" ref="D10:D23" si="8">C10-C12</f>
+        <v>300</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F21" si="8">D10*E10</f>
-        <v>1177.5</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>1413</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1560</v>
+        <v>1464</v>
       </c>
       <c r="H10" s="7">
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,46 +772,46 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4250</v>
+        <v>4270</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="8"/>
-        <v>382.5</v>
+        <f t="shared" si="9"/>
+        <v>51</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>44252</v>
+      <c r="A12" s="12">
+        <v>44302</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>12350</v>
+        <v>12600</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F12:F23" si="10">D12*E12</f>
         <v>1177.5</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>1432.5</v>
+        <v>1560</v>
       </c>
       <c r="H12" s="7">
         <v>1432.5</v>
@@ -823,49 +823,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4100</v>
+        <v>4250</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>150</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="8"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="10"/>
+        <v>382.5</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>12100</v>
+        <v>12350</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>250</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="8"/>
-        <v>942</v>
+        <f t="shared" si="10"/>
+        <v>1177.5</v>
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
       <c r="H14" s="7">
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,49 +874,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="8"/>
-        <v>382.5</v>
+        <f t="shared" si="10"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44120</v>
+        <v>44202</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
-        <v>400</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="8"/>
-        <v>1884</v>
+        <f t="shared" si="10"/>
+        <v>942</v>
       </c>
       <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
       <c r="H16" s="7">
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,17 +925,17 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>382.5</v>
       </c>
       <c r="G17" s="7"/>
@@ -943,31 +943,31 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
-        <v>319</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="8"/>
-        <v>1502.49</v>
+        <f t="shared" si="10"/>
+        <v>1884</v>
       </c>
       <c r="G18" s="7">
         <f>SUM(F18,F19)</f>
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
       <c r="H18" s="7">
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,49 +976,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>3700</v>
+        <v>3850</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
-        <v>92</v>
+        <f t="shared" si="8"/>
+        <v>150</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="8"/>
-        <v>234.6</v>
+        <f t="shared" si="10"/>
+        <v>382.5</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44056</v>
+        <v>44089</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>11181</v>
+        <v>11500</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
-        <v>600</v>
+        <f t="shared" si="8"/>
+        <v>319</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="8"/>
-        <v>2826</v>
+        <f t="shared" si="10"/>
+        <v>1502.49</v>
       </c>
       <c r="G20" s="7">
         <f>SUM(F20,F21)</f>
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
       <c r="H20" s="7">
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,37 +1027,50 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>3608</v>
+        <v>3700</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>92</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="8"/>
-        <v>382.5</v>
+        <f t="shared" si="10"/>
+        <v>234.6</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44029</v>
+        <v>44056</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>10581</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+        <v>11181</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="8"/>
+        <v>600</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="10"/>
+        <v>2826</v>
+      </c>
+      <c r="G22" s="7">
+        <f>SUM(F22,F23)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3208.5</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1065,13 +1078,51 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>3458</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="6"/>
+        <v>3608</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="10"/>
+        <v>382.5</v>
+      </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,31 +535,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44424</v>
+        <v>44459</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>14270</v>
+        <v>14800</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2331.1999999999998</v>
+        <v>2628.8</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>2438.3999999999996</v>
+        <v>2923.6000000000004</v>
       </c>
       <c r="H2" s="7">
-        <v>2438.4</v>
+        <v>2963.6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,49 +568,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4590</v>
+        <v>4700</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>107.2</v>
+        <v>294.8</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44398</v>
+        <v>44424</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>13800</v>
+        <v>14270</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1488</v>
+        <v>2331.1999999999998</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>1622</v>
+        <v>2438.3999999999996</v>
       </c>
       <c r="H4" s="7">
-        <v>1622</v>
+        <v>2438.4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,49 +619,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4550</v>
+        <v>4590</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E5" s="9">
         <v>2.68</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>107.2</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44376</v>
+        <v>44398</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
         <v>300</v>
       </c>
       <c r="E6" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1413</v>
+        <v>1488</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="H6" s="7">
-        <v>1668</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,31 +670,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4500</v>
+        <v>4550</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="5"/>
-        <v>254.99999999999997</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44363</v>
+        <v>44376</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8:D9" si="6">C8-C10</f>
@@ -709,10 +709,10 @@
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
       <c r="H8" s="7">
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,34 +721,34 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="6"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E9" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="7"/>
-        <v>331.5</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D23" si="8">C10-C12</f>
+        <f t="shared" ref="D10:D11" si="8">C10-C12</f>
         <v>300</v>
       </c>
       <c r="E10" s="8">
@@ -760,10 +760,10 @@
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
       <c r="H10" s="7">
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,49 +772,49 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4270</v>
+        <v>4400</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="9"/>
-        <v>51</v>
+        <v>331.5</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="8"/>
-        <v>250</v>
+        <f t="shared" ref="D12:D25" si="10">C12-C14</f>
+        <v>300</v>
       </c>
       <c r="E12" s="8">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F23" si="10">D12*E12</f>
-        <v>1177.5</v>
+        <f t="shared" ref="F12:F13" si="11">D12*E12</f>
+        <v>1413</v>
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>1560</v>
+        <v>1464</v>
       </c>
       <c r="H12" s="7">
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,46 +823,46 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4250</v>
+        <v>4270</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="8"/>
-        <v>150</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="10"/>
-        <v>382.5</v>
+        <f t="shared" si="11"/>
+        <v>51</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>44252</v>
+      <c r="A14" s="12">
+        <v>44302</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>12350</v>
+        <v>12600</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F14:F25" si="12">D14*E14</f>
         <v>1177.5</v>
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>1432.5</v>
+        <v>1560</v>
       </c>
       <c r="H14" s="7">
         <v>1432.5</v>
@@ -874,49 +874,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>4100</v>
+        <v>4250</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="8"/>
-        <v>100</v>
+        <f t="shared" si="10"/>
+        <v>150</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="10"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="12"/>
+        <v>382.5</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>12100</v>
+        <v>12350</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="8"/>
-        <v>200</v>
+        <f t="shared" si="10"/>
+        <v>250</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="10"/>
-        <v>942</v>
+        <f t="shared" si="12"/>
+        <v>1177.5</v>
       </c>
       <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
       <c r="H16" s="7">
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,49 +925,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="8"/>
-        <v>150</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="10"/>
-        <v>382.5</v>
+        <f t="shared" si="12"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44120</v>
+        <v>44202</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="8"/>
-        <v>400</v>
+        <f t="shared" si="10"/>
+        <v>200</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="10"/>
-        <v>1884</v>
+        <f t="shared" si="12"/>
+        <v>942</v>
       </c>
       <c r="G18" s="7">
         <f>SUM(F18,F19)</f>
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
       <c r="H18" s="7">
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,17 +976,17 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>382.5</v>
       </c>
       <c r="G19" s="7"/>
@@ -994,31 +994,31 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
-        <v>319</v>
+        <f t="shared" si="10"/>
+        <v>400</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="10"/>
-        <v>1502.49</v>
+        <f t="shared" si="12"/>
+        <v>1884</v>
       </c>
       <c r="G20" s="7">
         <f>SUM(F20,F21)</f>
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
       <c r="H20" s="7">
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,49 +1027,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>3700</v>
+        <v>3850</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="8"/>
-        <v>92</v>
+        <f t="shared" si="10"/>
+        <v>150</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="10"/>
-        <v>234.6</v>
+        <f t="shared" si="12"/>
+        <v>382.5</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44056</v>
+        <v>44089</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>11181</v>
+        <v>11500</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="8"/>
-        <v>600</v>
+        <f t="shared" si="10"/>
+        <v>319</v>
       </c>
       <c r="E22" s="8">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="10"/>
-        <v>2826</v>
+        <f t="shared" si="12"/>
+        <v>1502.49</v>
       </c>
       <c r="G22" s="7">
         <f>SUM(F22,F23)</f>
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
       <c r="H22" s="7">
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,37 +1078,50 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>3608</v>
+        <v>3700</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="8"/>
-        <v>150</v>
+        <f t="shared" si="10"/>
+        <v>92</v>
       </c>
       <c r="E23" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="10"/>
-        <v>382.5</v>
+        <f t="shared" si="12"/>
+        <v>234.6</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44029</v>
+        <v>44056</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>10581</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+        <v>11181</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="12"/>
+        <v>2826</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUM(F24,F25)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3208.5</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1116,13 +1129,51 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>3458</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="6"/>
+        <v>3608</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="12"/>
+        <v>382.5</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,31 +535,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44459</v>
+        <v>44487</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2628.8</v>
+        <v>1984</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>2923.6000000000004</v>
+        <v>2788</v>
       </c>
       <c r="H2" s="7">
-        <v>2963.6</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,49 +568,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>294.8</v>
+        <v>804</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44424</v>
+        <v>44459</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>14270</v>
+        <v>14800</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>2331.1999999999998</v>
+        <v>2628.8</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>2438.3999999999996</v>
+        <v>2923.6000000000004</v>
       </c>
       <c r="H4" s="7">
-        <v>2438.4</v>
+        <v>2963.6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,49 +619,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4590</v>
+        <v>4700</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E5" s="9">
         <v>2.68</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>107.2</v>
+        <v>294.8</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44398</v>
+        <v>44424</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>13800</v>
+        <v>14270</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="E6" s="8">
         <v>4.96</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1488</v>
+        <v>2331.1999999999998</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>1622</v>
+        <v>2438.3999999999996</v>
       </c>
       <c r="H6" s="7">
-        <v>1622</v>
+        <v>2438.4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,49 +670,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4550</v>
+        <v>4590</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9">
         <v>2.68</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="5"/>
-        <v>134</v>
+        <v>107.2</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44376</v>
+        <v>44398</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8:D9" si="6">C8-C10</f>
         <v>300</v>
       </c>
       <c r="E8" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>1413</v>
+        <v>1488</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="H8" s="7">
-        <v>1668</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,31 +721,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4500</v>
+        <v>4550</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="7"/>
-        <v>254.99999999999997</v>
+        <v>134</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44363</v>
+        <v>44376</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ref="D10:D11" si="8">C10-C12</f>
@@ -760,10 +760,10 @@
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
       <c r="H10" s="7">
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,34 +772,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="8"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E11" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="9"/>
-        <v>331.5</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="D12:D25" si="10">C12-C14</f>
+        <f t="shared" ref="D12:D13" si="10">C12-C14</f>
         <v>300</v>
       </c>
       <c r="E12" s="8">
@@ -811,10 +811,10 @@
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
       <c r="H12" s="7">
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,49 +823,49 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4270</v>
+        <v>4400</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="11"/>
-        <v>51</v>
+        <v>331.5</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="10"/>
-        <v>250</v>
+        <f t="shared" ref="D14:D27" si="12">C14-C16</f>
+        <v>300</v>
       </c>
       <c r="E14" s="8">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F25" si="12">D14*E14</f>
-        <v>1177.5</v>
+        <f t="shared" ref="F14:F15" si="13">D14*E14</f>
+        <v>1413</v>
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>1560</v>
+        <v>1464</v>
       </c>
       <c r="H14" s="7">
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,46 +874,46 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>4250</v>
+        <v>4270</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="10"/>
-        <v>150</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="12"/>
-        <v>382.5</v>
+        <f t="shared" si="13"/>
+        <v>51</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>44252</v>
+      <c r="A16" s="12">
+        <v>44302</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>12350</v>
+        <v>12600</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>250</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F16:F27" si="14">D16*E16</f>
         <v>1177.5</v>
       </c>
       <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
-        <v>1432.5</v>
+        <v>1560</v>
       </c>
       <c r="H16" s="7">
         <v>1432.5</v>
@@ -925,49 +925,49 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>4100</v>
+        <v>4250</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="10"/>
-        <v>100</v>
+        <f t="shared" si="12"/>
+        <v>150</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="12"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="14"/>
+        <v>382.5</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>12100</v>
+        <v>12350</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="10"/>
-        <v>200</v>
+        <f t="shared" si="12"/>
+        <v>250</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="12"/>
-        <v>942</v>
+        <f t="shared" si="14"/>
+        <v>1177.5</v>
       </c>
       <c r="G18" s="7">
         <f>SUM(F18,F19)</f>
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
       <c r="H18" s="7">
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -976,49 +976,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="10"/>
-        <v>150</v>
+        <f t="shared" si="12"/>
+        <v>100</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="12"/>
-        <v>382.5</v>
+        <f t="shared" si="14"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44120</v>
+        <v>44202</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="10"/>
-        <v>400</v>
+        <f t="shared" si="12"/>
+        <v>200</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="12"/>
-        <v>1884</v>
+        <f t="shared" si="14"/>
+        <v>942</v>
       </c>
       <c r="G20" s="7">
         <f>SUM(F20,F21)</f>
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
       <c r="H20" s="7">
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,17 +1027,17 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>382.5</v>
       </c>
       <c r="G21" s="7"/>
@@ -1045,31 +1045,31 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="10"/>
-        <v>319</v>
+        <f t="shared" si="12"/>
+        <v>400</v>
       </c>
       <c r="E22" s="8">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="12"/>
-        <v>1502.49</v>
+        <f t="shared" si="14"/>
+        <v>1884</v>
       </c>
       <c r="G22" s="7">
         <f>SUM(F22,F23)</f>
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
       <c r="H22" s="7">
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,49 +1078,49 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>3700</v>
+        <v>3850</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="10"/>
-        <v>92</v>
+        <f t="shared" si="12"/>
+        <v>150</v>
       </c>
       <c r="E23" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="12"/>
-        <v>234.6</v>
+        <f t="shared" si="14"/>
+        <v>382.5</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44056</v>
+        <v>44089</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>11181</v>
+        <v>11500</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="10"/>
-        <v>600</v>
+        <f t="shared" si="12"/>
+        <v>319</v>
       </c>
       <c r="E24" s="8">
         <v>4.71</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="12"/>
-        <v>2826</v>
+        <f t="shared" si="14"/>
+        <v>1502.49</v>
       </c>
       <c r="G24" s="7">
         <f>SUM(F24,F25)</f>
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
       <c r="H24" s="7">
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,37 +1129,50 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>3608</v>
+        <v>3700</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="10"/>
-        <v>150</v>
+        <f t="shared" si="12"/>
+        <v>92</v>
       </c>
       <c r="E25" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="12"/>
-        <v>382.5</v>
+        <f t="shared" si="14"/>
+        <v>234.6</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>44029</v>
+        <v>44056</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>10581</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+        <v>11181</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="14"/>
+        <v>2826</v>
+      </c>
+      <c r="G26" s="7">
+        <f>SUM(F26,F27)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3208.5</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1167,13 +1180,51 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>3458</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="6"/>
+        <v>3608</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="14"/>
+        <v>382.5</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/105ee.xlsx
+++ b/sputnik/personal/ee/105ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -486,10 +486,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -535,31 +535,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44487</v>
+        <v>44515</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ref="D2:D3" si="0">C2-C4</f>
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E2" s="8">
         <v>4.96</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1984</v>
+        <v>1488</v>
       </c>
       <c r="G2" s="7">
         <f>SUM(F2,F3)</f>
-        <v>2788</v>
+        <v>1756</v>
       </c>
       <c r="H2" s="7">
-        <v>2788</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -568,49 +568,49 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9">
         <v>2.68</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>804</v>
+        <v>268</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44459</v>
+        <v>44487</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="2">C4-C6</f>
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="E4" s="8">
         <v>4.96</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>2628.8</v>
+        <v>1984</v>
       </c>
       <c r="G4" s="7">
         <f>SUM(F4,F5)</f>
-        <v>2923.6000000000004</v>
+        <v>2788</v>
       </c>
       <c r="H4" s="7">
-        <v>2963.6</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,49 +619,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="E5" s="9">
         <v>2.68</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
-        <v>294.8</v>
+        <v>804</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44424</v>
+        <v>44459</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>14270</v>
+        <v>14800</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ref="D6:D7" si="4">C6-C8</f>
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="E6" s="8">
         <v>4.96</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>2331.1999999999998</v>
+        <v>2628.8</v>
       </c>
       <c r="G6" s="7">
         <f>SUM(F6,F7)</f>
-        <v>2438.3999999999996</v>
+        <v>2923.6000000000004</v>
       </c>
       <c r="H6" s="7">
-        <v>2438.4</v>
+        <v>2963.6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -670,49 +670,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>4590</v>
+        <v>4700</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="E7" s="9">
         <v>2.68</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="5"/>
-        <v>107.2</v>
+        <v>294.8</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44398</v>
+        <v>44424</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>13800</v>
+        <v>14270</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" ref="D8:D9" si="6">C8-C10</f>
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="E8" s="8">
         <v>4.96</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>1488</v>
+        <v>2331.1999999999998</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(F8,F9)</f>
-        <v>1622</v>
+        <v>2438.3999999999996</v>
       </c>
       <c r="H8" s="7">
-        <v>1622</v>
+        <v>2438.4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -721,49 +721,49 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>4550</v>
+        <v>4590</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E9" s="9">
         <v>2.68</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="7"/>
-        <v>134</v>
+        <v>107.2</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44376</v>
+        <v>44398</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" ref="D10:D11" si="8">C10-C12</f>
         <v>300</v>
       </c>
       <c r="E10" s="8">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>1413</v>
+        <v>1488</v>
       </c>
       <c r="G10" s="7">
         <f>SUM(F10,F11)</f>
-        <v>1668</v>
+        <v>1622</v>
       </c>
       <c r="H10" s="7">
-        <v>1668</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,31 +772,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>4500</v>
+        <v>4550</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E11" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="9"/>
-        <v>254.99999999999997</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>44363</v>
+        <v>44376</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ref="D12:D13" si="10">C12-C14</f>
@@ -811,10 +811,10 @@
       </c>
       <c r="G12" s="7">
         <f>SUM(F12,F13)</f>
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
       <c r="H12" s="7">
-        <v>1744.5</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,34 +823,34 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="10"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E13" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="11"/>
-        <v>331.5</v>
+        <v>254.99999999999997</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>12900</v>
+        <v>13200</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ref="D14:D27" si="12">C14-C16</f>
+        <f t="shared" ref="D14:D15" si="12">C14-C16</f>
         <v>300</v>
       </c>
       <c r="E14" s="8">
@@ -862,10 +862,10 @@
       </c>
       <c r="G14" s="7">
         <f>SUM(F14,F15)</f>
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
       <c r="H14" s="7">
-        <v>1464</v>
+        <v>1744.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,49 +874,49 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>4270</v>
+        <v>4400</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="12"/>
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E15" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="13"/>
-        <v>51</v>
+        <v>331.5</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>44302</v>
+        <v>44333</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="12"/>
-        <v>250</v>
+        <f t="shared" ref="D16:D29" si="14">C16-C18</f>
+        <v>300</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" ref="F16:F27" si="14">D16*E16</f>
-        <v>1177.5</v>
+        <f t="shared" ref="F16:F17" si="15">D16*E16</f>
+        <v>1413</v>
       </c>
       <c r="G16" s="7">
         <f>SUM(F16,F17)</f>
-        <v>1560</v>
+        <v>1464</v>
       </c>
       <c r="H16" s="7">
-        <v>1432.5</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,46 +925,46 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>4250</v>
+        <v>4270</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="12"/>
-        <v>150</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="E17" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="14"/>
-        <v>382.5</v>
+        <f t="shared" si="15"/>
+        <v>51</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>44252</v>
+      <c r="A18" s="12">
+        <v>44302</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>12350</v>
+        <v>12600</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="E18" s="8">
         <v>4.71</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F18:F29" si="16">D18*E18</f>
         <v>1177.5</v>
       </c>
       <c r="G18" s="7">
         <f>SUM(F18,F19)</f>
-        <v>1432.5</v>
+        <v>1560</v>
       </c>
       <c r="H18" s="7">
         <v>1432.5</v>
@@ -976,49 +976,49 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>4100</v>
+        <v>4250</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="12"/>
-        <v>100</v>
+        <f t="shared" si="14"/>
+        <v>150</v>
       </c>
       <c r="E19" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="14"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="16"/>
+        <v>382.5</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>44202</v>
+        <v>44252</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>12100</v>
+        <v>12350</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="12"/>
-        <v>200</v>
+        <f t="shared" si="14"/>
+        <v>250</v>
       </c>
       <c r="E20" s="8">
         <v>4.71</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="14"/>
-        <v>942</v>
+        <f t="shared" si="16"/>
+        <v>1177.5</v>
       </c>
       <c r="G20" s="7">
         <f>SUM(F20,F21)</f>
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
       <c r="H20" s="7">
-        <v>1324.5</v>
+        <v>1432.5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1027,49 +1027,49 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="12"/>
-        <v>150</v>
+        <f t="shared" si="14"/>
+        <v>100</v>
       </c>
       <c r="E21" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="14"/>
-        <v>382.5</v>
+        <f t="shared" si="16"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>44120</v>
+        <v>44202</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="12"/>
-        <v>400</v>
+        <f t="shared" si="14"/>
+        <v>200</v>
       </c>
       <c r="E22" s="8">
         <v>4.71</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="14"/>
-        <v>1884</v>
+        <f t="shared" si="16"/>
+        <v>942</v>
       </c>
       <c r="G22" s="7">
         <f>SUM(F22,F23)</f>
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
       <c r="H22" s="7">
-        <v>2266.5</v>
+        <v>1324.5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1078,17 +1078,17 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>3850</v>
+        <v>4000</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="E23" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>382.5</v>
       </c>
       <c r="G23" s="7"/>
@@ -1096,31 +1096,31 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="12"/>
-        <v>319</v>
+        <f t="shared" si="14"/>
+        <v>400</v>
       </c>
       <c r="E24" s="8">
         <v>4.71</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="14"/>
-        <v>1502.49</v>
+        <f t="shared" si="16"/>
+        <v>1884</v>
       </c>
       <c r="G24" s="7">
         <f>SUM(F24,F25)</f>
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
       <c r="H24" s="7">
-        <v>1737.09</v>
+        <v>2266.5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,49 +1129,49 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>3700</v>
+        <v>3850</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="12"/>
-        <v>92</v>
+        <f t="shared" si="14"/>
+        <v>150</v>
       </c>
       <c r="E25" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="14"/>
-        <v>234.6</v>
+        <f t="shared" si="16"/>
+        <v>382.5</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>44056</v>
+        <v>44089</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>11181</v>
+        <v>11500</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="12"/>
-        <v>600</v>
+        <f t="shared" si="14"/>
+        <v>319</v>
       </c>
       <c r="E26" s="8">
         <v>4.71</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="14"/>
-        <v>2826</v>
+        <f t="shared" si="16"/>
+        <v>1502.49</v>
       </c>
       <c r="G26" s="7">
         <f>SUM(F26,F27)</f>
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
       <c r="H26" s="7">
-        <v>3208.5</v>
+        <v>1737.09</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1180,37 +1180,50 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>3608</v>
+        <v>3700</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="12"/>
-        <v>150</v>
+        <f t="shared" si="14"/>
+        <v>92</v>
       </c>
       <c r="E27" s="9">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="14"/>
-        <v>382.5</v>
+        <f t="shared" si="16"/>
+        <v>234.6</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>44029</v>
+        <v>44056</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>10581</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+        <v>11181</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="14"/>
+        <v>600</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="16"/>
+        <v>2826</v>
+      </c>
+      <c r="G28" s="7">
+        <f>SUM(F28,F29)</f>
+        <v>3208.5</v>
+      </c>
+      <c r="H28" s="7">
+        <v>3208.5</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1218,13 +1231,51 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>3458</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="6"/>
+        <v>3608</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="16"/>
+        <v>382.5</v>
+      </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>44029</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10581</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3458</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
